--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\216212\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_組織\平成31年度\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$79</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$82</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -503,13 +503,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A62" sqref="A62:XFD62"/>
+      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1760,17 +1760,68 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" s="3"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="A74" s="3">
+        <v>43929</v>
+      </c>
+      <c r="B74" s="5">
+        <v>938</v>
+      </c>
+      <c r="C74" s="5">
+        <v>17734</v>
+      </c>
+      <c r="D74" s="4">
+        <v>158</v>
+      </c>
+      <c r="E74" s="4">
+        <v>4546</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" s="3"/>
-      <c r="B75" s="5" t="s">
+      <c r="A75" s="3">
+        <v>43930</v>
+      </c>
+      <c r="B75" s="5">
+        <v>892</v>
+      </c>
+      <c r="C75" s="5">
+        <v>18626</v>
+      </c>
+      <c r="D75" s="4">
+        <v>171</v>
+      </c>
+      <c r="E75" s="4">
+        <v>4735</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" s="3">
+        <v>43931</v>
+      </c>
+      <c r="B76" s="5">
+        <v>926</v>
+      </c>
+      <c r="C76" s="5">
+        <v>19552</v>
+      </c>
+      <c r="D76" s="4">
+        <v>137</v>
+      </c>
+      <c r="E76" s="4">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" s="3"/>
+      <c r="B78" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$83</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -503,13 +503,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomRight" activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1811,17 +1811,46 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" s="3"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
+      <c r="A77" s="3">
+        <v>43932</v>
+      </c>
+      <c r="B77" s="5">
+        <v>709</v>
+      </c>
+      <c r="C77" s="5">
+        <v>20261</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <v>4872</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" s="3"/>
-      <c r="B78" s="5" t="s">
+      <c r="A78" s="3">
+        <v>43933</v>
+      </c>
+      <c r="B78" s="5">
+        <v>697</v>
+      </c>
+      <c r="C78" s="5">
+        <v>20958</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>4872</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" s="3"/>
+      <c r="B79" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$83</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$84</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -503,13 +503,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E78" sqref="E78"/>
+      <selection pane="bottomRight" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1845,12 +1845,29 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" s="3"/>
-      <c r="B79" s="5" t="s">
+      <c r="A79" s="3">
+        <v>43934</v>
+      </c>
+      <c r="B79" s="5">
+        <v>1047</v>
+      </c>
+      <c r="C79" s="5">
+        <v>22005</v>
+      </c>
+      <c r="D79" s="4">
+        <v>195</v>
+      </c>
+      <c r="E79" s="4">
+        <v>5067</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" s="3"/>
+      <c r="B80" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,9 +16,9 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$84</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$86</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -503,13 +503,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G77" sqref="G77"/>
+      <selection pane="bottomRight" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1862,12 +1862,46 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" s="3"/>
-      <c r="B80" s="5" t="s">
+      <c r="A80" s="3">
+        <v>43935</v>
+      </c>
+      <c r="B80" s="5">
+        <v>770</v>
+      </c>
+      <c r="C80" s="5">
+        <v>22775</v>
+      </c>
+      <c r="D80" s="4">
+        <v>165</v>
+      </c>
+      <c r="E80" s="4">
+        <v>5232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" s="3">
+        <v>43936</v>
+      </c>
+      <c r="B81" s="5">
+        <v>717</v>
+      </c>
+      <c r="C81" s="5">
+        <v>23492</v>
+      </c>
+      <c r="D81" s="4">
+        <v>138</v>
+      </c>
+      <c r="E81" s="4">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" s="3"/>
+      <c r="B82" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,9 +16,9 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$86</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$87</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -503,13 +503,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E82" sqref="E82"/>
+      <selection pane="bottomRight" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1896,12 +1896,29 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" s="3"/>
-      <c r="B82" s="5" t="s">
+      <c r="A82" s="3">
+        <v>43937</v>
+      </c>
+      <c r="B82" s="5">
+        <v>716</v>
+      </c>
+      <c r="C82" s="5">
+        <v>24208</v>
+      </c>
+      <c r="D82" s="4">
+        <v>178</v>
+      </c>
+      <c r="E82" s="4">
+        <v>5548</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" s="3"/>
+      <c r="B83" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$87</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$88</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -135,7 +135,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,6 +146,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -174,7 +182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -195,6 +203,15 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,13 +520,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E84" sqref="E84"/>
+      <selection pane="bottomRight" activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1913,12 +1930,29 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" s="3"/>
-      <c r="B83" s="5" t="s">
+      <c r="A83" s="3">
+        <v>43938</v>
+      </c>
+      <c r="B83" s="7">
+        <v>727</v>
+      </c>
+      <c r="C83" s="7">
+        <v>24935</v>
+      </c>
+      <c r="D83" s="9">
+        <v>117</v>
+      </c>
+      <c r="E83" s="8">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" s="3"/>
+      <c r="B84" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$89</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -520,13 +520,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E83" sqref="E83"/>
+      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1947,12 +1947,29 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" s="3"/>
-      <c r="B84" s="5" t="s">
+      <c r="A84" s="3">
+        <v>43939</v>
+      </c>
+      <c r="B84" s="7">
+        <v>522</v>
+      </c>
+      <c r="C84" s="7">
+        <v>25457</v>
+      </c>
+      <c r="D84" s="9">
+        <v>0</v>
+      </c>
+      <c r="E84" s="8">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" s="3"/>
+      <c r="B85" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -520,13 +520,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1964,12 +1964,26 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" s="3"/>
-      <c r="B85" s="5" t="s">
+      <c r="A85" s="3">
+        <v>43940</v>
+      </c>
+      <c r="B85" s="5">
+        <v>523</v>
+      </c>
+      <c r="C85" s="5">
+        <v>25980</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <v>5665</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B86" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -104,28 +104,6 @@
   </si>
   <si>
     <t>※4/8より健康相談窓口と帰国者・接触者相談センターを統合</t>
-    <rPh sb="6" eb="8">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>マドグチ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>キコクシャ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>セッショクシャ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ソウダン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>トウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -520,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E85" sqref="E85"/>
+      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1981,7 +1959,24 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B86" s="7" t="s">
+      <c r="A86" s="3">
+        <v>43941</v>
+      </c>
+      <c r="B86" s="7">
+        <v>770</v>
+      </c>
+      <c r="C86" s="5">
+        <v>26750</v>
+      </c>
+      <c r="D86" s="8">
+        <v>210</v>
+      </c>
+      <c r="E86" s="8">
+        <v>5875</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B87" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,9 +16,9 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$92</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E87" sqref="E87"/>
+      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1969,14 +1969,61 @@
         <v>26750</v>
       </c>
       <c r="D86" s="8">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="E86" s="8">
-        <v>5875</v>
+        <v>5894</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B87" s="5" t="s">
+      <c r="A87" s="3">
+        <v>43942</v>
+      </c>
+      <c r="B87" s="7">
+        <v>539</v>
+      </c>
+      <c r="C87" s="7">
+        <v>27289</v>
+      </c>
+      <c r="D87" s="8">
+        <v>174</v>
+      </c>
+      <c r="E87" s="8">
+        <v>6068</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" s="3">
+        <v>43943</v>
+      </c>
+      <c r="B88" s="7">
+        <v>531</v>
+      </c>
+      <c r="C88" s="7">
+        <v>27820</v>
+      </c>
+      <c r="D88" s="8">
+        <v>127</v>
+      </c>
+      <c r="E88" s="8">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" s="3">
+        <v>43944</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7">
+        <v>27820</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8">
+        <v>6195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B90" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,9 +16,9 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$93</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A89" sqref="A89"/>
+      <selection pane="bottomRight" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2013,17 +2013,28 @@
       <c r="A89" s="3">
         <v>43944</v>
       </c>
-      <c r="B89" s="7"/>
+      <c r="B89" s="7">
+        <v>561</v>
+      </c>
       <c r="C89" s="7">
-        <v>27820</v>
-      </c>
-      <c r="D89" s="8"/>
+        <v>28381</v>
+      </c>
+      <c r="D89" s="8">
+        <v>159</v>
+      </c>
       <c r="E89" s="8">
-        <v>6195</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B90" s="5" t="s">
+      <c r="A90" s="3"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B91" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$93</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$94</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D90" sqref="D90"/>
+      <selection pane="bottomRight" activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2027,14 +2027,33 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" s="3"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
+      <c r="A90" s="3">
+        <v>43945</v>
+      </c>
+      <c r="B90" s="7">
+        <v>609</v>
+      </c>
+      <c r="C90" s="7">
+        <v>28990</v>
+      </c>
+      <c r="D90" s="8">
+        <v>104</v>
+      </c>
+      <c r="E90" s="8">
+        <v>6458</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B91" s="5" t="s">
+      <c r="A91" s="3">
+        <v>43946</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B92" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$95</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E93" sqref="E93"/>
+      <selection pane="bottomRight" activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2047,13 +2047,30 @@
       <c r="A91" s="3">
         <v>43946</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
+      <c r="B91" s="7">
+        <v>524</v>
+      </c>
+      <c r="C91" s="7">
+        <v>29514</v>
+      </c>
+      <c r="D91" s="8">
+        <v>0</v>
+      </c>
+      <c r="E91" s="8">
+        <v>6458</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B92" s="5" t="s">
+      <c r="A92" s="3">
+        <v>43947</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B93" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$96</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B92" sqref="B92"/>
+      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2064,13 +2064,30 @@
       <c r="A92" s="3">
         <v>43947</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
+      <c r="B92" s="7">
+        <v>514</v>
+      </c>
+      <c r="C92" s="7">
+        <v>30028</v>
+      </c>
+      <c r="D92" s="8">
+        <v>0</v>
+      </c>
+      <c r="E92" s="8">
+        <v>6458</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B93" s="5" t="s">
+      <c r="A93" s="3">
+        <v>43948</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B94" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -504,7 +504,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A92" sqref="A92"/>
+      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2081,10 +2081,18 @@
       <c r="A93" s="3">
         <v>43948</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
+      <c r="B93" s="7">
+        <v>690</v>
+      </c>
+      <c r="C93" s="7">
+        <v>30718</v>
+      </c>
+      <c r="D93" s="8">
+        <v>58</v>
+      </c>
+      <c r="E93" s="8">
+        <v>6516</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B94" s="5" t="s">

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$96</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$97</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A93" sqref="A93"/>
+      <selection pane="bottomRight" activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2095,7 +2095,24 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B94" s="5" t="s">
+      <c r="A94" s="3">
+        <v>43949</v>
+      </c>
+      <c r="B94" s="7">
+        <v>396</v>
+      </c>
+      <c r="C94" s="7">
+        <v>31114</v>
+      </c>
+      <c r="D94" s="8">
+        <v>148</v>
+      </c>
+      <c r="E94" s="8">
+        <v>6664</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B95" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$97</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$98</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E96" sqref="E96"/>
+      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2112,7 +2112,24 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B95" s="5" t="s">
+      <c r="A95" s="3">
+        <v>43950</v>
+      </c>
+      <c r="B95" s="7">
+        <v>396</v>
+      </c>
+      <c r="C95" s="7">
+        <v>31510</v>
+      </c>
+      <c r="D95" s="8">
+        <v>0</v>
+      </c>
+      <c r="E95" s="8">
+        <v>6664</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B96" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$99</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A95" sqref="A95"/>
+      <selection pane="bottomRight" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2129,7 +2129,24 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B96" s="5" t="s">
+      <c r="A96" s="3">
+        <v>43951</v>
+      </c>
+      <c r="B96" s="7">
+        <v>792</v>
+      </c>
+      <c r="C96" s="7">
+        <v>32302</v>
+      </c>
+      <c r="D96" s="8">
+        <v>185</v>
+      </c>
+      <c r="E96" s="8">
+        <v>6849</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B97" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -501,10 +501,10 @@
   <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D97" sqref="D97"/>
+      <selection pane="bottomRight" activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2133,10 +2133,10 @@
         <v>43951</v>
       </c>
       <c r="B96" s="7">
-        <v>792</v>
+        <v>519</v>
       </c>
       <c r="C96" s="7">
-        <v>32302</v>
+        <v>32029</v>
       </c>
       <c r="D96" s="8">
         <v>185</v>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G102" sqref="G102"/>
+      <selection pane="bottomRight" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2145,8 +2145,25 @@
         <v>6849</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B97" s="5" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" s="3">
+        <v>43952</v>
+      </c>
+      <c r="B97" s="7">
+        <v>407</v>
+      </c>
+      <c r="C97" s="7">
+        <v>32436</v>
+      </c>
+      <c r="D97" s="8">
+        <v>109</v>
+      </c>
+      <c r="E97" s="8">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B98" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$99</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$100</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E98" sqref="E98"/>
+      <selection pane="bottomRight" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2163,7 +2163,24 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B98" s="5" t="s">
+      <c r="A98" s="3">
+        <v>43953</v>
+      </c>
+      <c r="B98" s="7">
+        <v>292</v>
+      </c>
+      <c r="C98" s="7">
+        <v>32728</v>
+      </c>
+      <c r="D98" s="8">
+        <v>0</v>
+      </c>
+      <c r="E98" s="8">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B99" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$100</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$101</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C100" sqref="C100"/>
+      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2180,7 +2180,24 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B99" s="5" t="s">
+      <c r="A99" s="3">
+        <v>43954</v>
+      </c>
+      <c r="B99" s="7">
+        <v>308</v>
+      </c>
+      <c r="C99" s="7">
+        <v>33036</v>
+      </c>
+      <c r="D99" s="8">
+        <v>0</v>
+      </c>
+      <c r="E99" s="8">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B100" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$102</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D99" sqref="D99"/>
+      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2197,7 +2197,25 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B100" s="5" t="s">
+      <c r="A100" s="3">
+        <v>43955</v>
+      </c>
+      <c r="B100" s="7">
+        <v>428</v>
+      </c>
+      <c r="C100" s="7">
+        <v>33464</v>
+      </c>
+      <c r="D100" s="8">
+        <v>0</v>
+      </c>
+      <c r="E100" s="8">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" s="3"/>
+      <c r="B101" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$102</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$103</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2214,8 +2214,25 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" s="3"/>
-      <c r="B101" s="5" t="s">
+      <c r="A101" s="3">
+        <v>43956</v>
+      </c>
+      <c r="B101" s="7">
+        <v>321</v>
+      </c>
+      <c r="C101" s="7">
+        <v>33785</v>
+      </c>
+      <c r="D101" s="8">
+        <v>0</v>
+      </c>
+      <c r="E101" s="8">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" s="3"/>
+      <c r="B102" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$104</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B98" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B102" sqref="B102"/>
+      <selection pane="bottomRight" activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2231,8 +2231,25 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" s="3"/>
-      <c r="B102" s="5" t="s">
+      <c r="A102" s="3">
+        <v>43957</v>
+      </c>
+      <c r="B102" s="7">
+        <v>455</v>
+      </c>
+      <c r="C102" s="7">
+        <v>34240</v>
+      </c>
+      <c r="D102" s="8">
+        <v>0</v>
+      </c>
+      <c r="E102" s="8">
+        <v>6958</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" s="3"/>
+      <c r="B103" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$104</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$105</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C103" sqref="C103"/>
+      <selection pane="bottomRight" activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2248,8 +2248,25 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" s="3"/>
-      <c r="B103" s="5" t="s">
+      <c r="A103" s="3">
+        <v>43958</v>
+      </c>
+      <c r="B103" s="7">
+        <v>463</v>
+      </c>
+      <c r="C103" s="7">
+        <v>34703</v>
+      </c>
+      <c r="D103" s="8">
+        <v>77</v>
+      </c>
+      <c r="E103" s="8">
+        <v>7035</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" s="3"/>
+      <c r="B104" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$106</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A103" sqref="A103"/>
+      <selection pane="bottomRight" activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2265,8 +2265,25 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" s="3"/>
-      <c r="B104" s="5" t="s">
+      <c r="A104" s="3">
+        <v>43959</v>
+      </c>
+      <c r="B104" s="7">
+        <v>304</v>
+      </c>
+      <c r="C104" s="7">
+        <v>35007</v>
+      </c>
+      <c r="D104" s="8">
+        <v>99</v>
+      </c>
+      <c r="E104" s="8">
+        <v>7134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="3"/>
+      <c r="B105" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$106</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$107</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A104" sqref="A104"/>
+      <selection pane="bottomRight" activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2282,8 +2282,25 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="3"/>
-      <c r="B105" s="5" t="s">
+      <c r="A105" s="3">
+        <v>43960</v>
+      </c>
+      <c r="B105" s="7">
+        <v>378</v>
+      </c>
+      <c r="C105" s="7">
+        <v>35385</v>
+      </c>
+      <c r="D105" s="8">
+        <v>98</v>
+      </c>
+      <c r="E105" s="8">
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" s="3"/>
+      <c r="B106" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$107</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$108</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E106" sqref="E106"/>
+      <selection pane="bottomRight" activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2299,8 +2299,25 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A106" s="3"/>
-      <c r="B106" s="5" t="s">
+      <c r="A106" s="3">
+        <v>43961</v>
+      </c>
+      <c r="B106" s="7">
+        <v>394</v>
+      </c>
+      <c r="C106" s="7">
+        <v>35779</v>
+      </c>
+      <c r="D106" s="8">
+        <v>0</v>
+      </c>
+      <c r="E106" s="8">
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" s="3"/>
+      <c r="B107" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$108</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$110</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A106" sqref="A106"/>
+      <selection pane="bottomRight" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2316,8 +2316,42 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" s="3"/>
-      <c r="B107" s="5" t="s">
+      <c r="A107" s="3">
+        <v>43962</v>
+      </c>
+      <c r="B107" s="7">
+        <v>455</v>
+      </c>
+      <c r="C107" s="7">
+        <v>36234</v>
+      </c>
+      <c r="D107" s="8">
+        <v>113</v>
+      </c>
+      <c r="E107" s="8">
+        <v>7345</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" s="3">
+        <v>43963</v>
+      </c>
+      <c r="B108" s="7">
+        <v>314</v>
+      </c>
+      <c r="C108" s="7">
+        <v>36548</v>
+      </c>
+      <c r="D108" s="8">
+        <v>92</v>
+      </c>
+      <c r="E108" s="8">
+        <v>7437</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" s="3"/>
+      <c r="B109" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$110</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$111</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E109" sqref="E109"/>
+      <selection pane="bottomRight" activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2350,8 +2350,25 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A109" s="3"/>
-      <c r="B109" s="5" t="s">
+      <c r="A109" s="3">
+        <v>43964</v>
+      </c>
+      <c r="B109" s="7">
+        <v>297</v>
+      </c>
+      <c r="C109" s="7">
+        <v>36845</v>
+      </c>
+      <c r="D109" s="8">
+        <v>51</v>
+      </c>
+      <c r="E109" s="8">
+        <v>7488</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" s="3"/>
+      <c r="B110" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$111</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$112</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A109" sqref="A109"/>
+      <selection pane="bottomRight" activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2367,8 +2367,25 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" s="3"/>
-      <c r="B110" s="5" t="s">
+      <c r="A110" s="3">
+        <v>43965</v>
+      </c>
+      <c r="B110" s="7">
+        <v>229</v>
+      </c>
+      <c r="C110" s="7">
+        <v>37074</v>
+      </c>
+      <c r="D110" s="8">
+        <v>42</v>
+      </c>
+      <c r="E110" s="8">
+        <v>7530</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" s="3"/>
+      <c r="B111" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$112</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$113</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A111" sqref="A111"/>
+      <selection pane="bottomRight" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2384,8 +2384,25 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" s="3"/>
-      <c r="B111" s="5" t="s">
+      <c r="A111" s="3">
+        <v>43966</v>
+      </c>
+      <c r="B111" s="7">
+        <v>216</v>
+      </c>
+      <c r="C111" s="7">
+        <v>37290</v>
+      </c>
+      <c r="D111" s="8">
+        <v>54</v>
+      </c>
+      <c r="E111" s="8">
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" s="3"/>
+      <c r="B112" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$113</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$114</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E109" sqref="E109"/>
+      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2401,8 +2401,25 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A112" s="3"/>
-      <c r="B112" s="5" t="s">
+      <c r="A112" s="3">
+        <v>43967</v>
+      </c>
+      <c r="B112" s="7">
+        <v>191</v>
+      </c>
+      <c r="C112" s="7">
+        <v>37481</v>
+      </c>
+      <c r="D112" s="8">
+        <v>0</v>
+      </c>
+      <c r="E112" s="8">
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" s="3"/>
+      <c r="B113" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_組織\平成31年度\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_局室区\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$114</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$115</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B110" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B113" sqref="B113"/>
+      <selection pane="bottomRight" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2417,9 +2417,26 @@
         <v>7584</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A113" s="3"/>
-      <c r="B113" s="5" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" s="3">
+        <v>43968</v>
+      </c>
+      <c r="B113" s="7">
+        <v>197</v>
+      </c>
+      <c r="C113" s="7">
+        <v>37678</v>
+      </c>
+      <c r="D113" s="8">
+        <v>0</v>
+      </c>
+      <c r="E113" s="8">
+        <v>7584</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" s="3"/>
+      <c r="B114" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A113" sqref="A113"/>
+      <selection pane="bottomRight" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2435,8 +2435,25 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A114" s="3"/>
-      <c r="B114" s="5" t="s">
+      <c r="A114" s="3">
+        <v>43969</v>
+      </c>
+      <c r="B114" s="7">
+        <v>287</v>
+      </c>
+      <c r="C114" s="7">
+        <v>37965</v>
+      </c>
+      <c r="D114" s="8">
+        <v>58</v>
+      </c>
+      <c r="E114" s="8">
+        <v>7642</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" s="3"/>
+      <c r="B115" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$115</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$116</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B112" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B115" sqref="B115"/>
+      <selection pane="bottomRight" activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2452,8 +2452,25 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A115" s="3"/>
-      <c r="B115" s="5" t="s">
+      <c r="A115" s="3">
+        <v>43970</v>
+      </c>
+      <c r="B115" s="7">
+        <v>206</v>
+      </c>
+      <c r="C115" s="7">
+        <v>38171</v>
+      </c>
+      <c r="D115" s="8">
+        <v>40</v>
+      </c>
+      <c r="E115" s="8">
+        <v>7682</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" s="3"/>
+      <c r="B116" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$116</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$117</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D113" sqref="D113"/>
+      <selection pane="bottomRight" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2469,8 +2469,25 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A116" s="3"/>
-      <c r="B116" s="5" t="s">
+      <c r="A116" s="3">
+        <v>43971</v>
+      </c>
+      <c r="B116" s="7">
+        <v>175</v>
+      </c>
+      <c r="C116" s="7">
+        <v>38346</v>
+      </c>
+      <c r="D116" s="8">
+        <v>46</v>
+      </c>
+      <c r="E116" s="8">
+        <v>7728</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" s="3"/>
+      <c r="B117" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$117</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$118</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B117" sqref="B117"/>
+      <selection pane="bottomRight" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2486,8 +2486,25 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A117" s="3"/>
-      <c r="B117" s="5" t="s">
+      <c r="A117" s="3">
+        <v>43972</v>
+      </c>
+      <c r="B117" s="7">
+        <v>119</v>
+      </c>
+      <c r="C117" s="7">
+        <v>38465</v>
+      </c>
+      <c r="D117" s="8">
+        <v>36</v>
+      </c>
+      <c r="E117" s="8">
+        <v>7764</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" s="3"/>
+      <c r="B118" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$118</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$119</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B118" sqref="B118"/>
+      <selection pane="bottomRight" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2503,8 +2503,25 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A118" s="3"/>
-      <c r="B118" s="5" t="s">
+      <c r="A118" s="3">
+        <v>43973</v>
+      </c>
+      <c r="B118" s="7">
+        <v>136</v>
+      </c>
+      <c r="C118" s="7">
+        <v>38601</v>
+      </c>
+      <c r="D118" s="8">
+        <v>37</v>
+      </c>
+      <c r="E118" s="8">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" s="3"/>
+      <c r="B119" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$119</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$120</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B119" sqref="B119"/>
+      <selection pane="bottomRight" activeCell="F119" sqref="F119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2520,8 +2520,25 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A119" s="3"/>
-      <c r="B119" s="5" t="s">
+      <c r="A119" s="3">
+        <v>43974</v>
+      </c>
+      <c r="B119" s="7">
+        <v>134</v>
+      </c>
+      <c r="C119" s="7">
+        <v>38735</v>
+      </c>
+      <c r="D119" s="8">
+        <v>0</v>
+      </c>
+      <c r="E119" s="8">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" s="3"/>
+      <c r="B120" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_局室区\01_市長室\03_広報戦略部\01_広報課\04_HP\コロナ\HP作図\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\file.kobe.local\top\02_作業文書\01_局室区\08_健康局\01_政策課\新型コロナ対応\06.広報支援チーム\03.広報課ホームページ関係資料\HP掲載用Excelデータ（5月25日～）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$120</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$124</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F119" sqref="F119"/>
+      <selection pane="bottomRight" activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2537,8 +2537,76 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A120" s="3"/>
-      <c r="B120" s="5" t="s">
+      <c r="A120" s="3">
+        <v>43975</v>
+      </c>
+      <c r="B120" s="7">
+        <v>111</v>
+      </c>
+      <c r="C120" s="7">
+        <v>38846</v>
+      </c>
+      <c r="D120" s="8">
+        <v>0</v>
+      </c>
+      <c r="E120" s="8">
+        <v>7801</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121" s="3">
+        <v>43976</v>
+      </c>
+      <c r="B121" s="7">
+        <v>176</v>
+      </c>
+      <c r="C121" s="7">
+        <v>39022</v>
+      </c>
+      <c r="D121" s="8">
+        <v>41</v>
+      </c>
+      <c r="E121" s="8">
+        <v>7842</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" s="3">
+        <v>43977</v>
+      </c>
+      <c r="B122" s="7">
+        <v>153</v>
+      </c>
+      <c r="C122" s="7">
+        <v>39175</v>
+      </c>
+      <c r="D122" s="8">
+        <v>32</v>
+      </c>
+      <c r="E122" s="8">
+        <v>7874</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123" s="3">
+        <v>43978</v>
+      </c>
+      <c r="B123" s="7">
+        <v>132</v>
+      </c>
+      <c r="C123" s="7">
+        <v>39307</v>
+      </c>
+      <c r="D123" s="8">
+        <v>38</v>
+      </c>
+      <c r="E123" s="8">
+        <v>7912</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124" s="3"/>
+      <c r="B124" s="5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/data/sodan.xlsx
+++ b/data/sodan.xlsx
@@ -16,7 +16,7 @@
     <sheet name="＿" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$124</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">相談件数!$A$1:$E$126</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -498,13 +498,13 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D129" sqref="D129"/>
+      <selection pane="bottomRight" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2605,8 +2605,42 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A124" s="3"/>
-      <c r="B124" s="5" t="s">
+      <c r="A124" s="3">
+        <v>43979</v>
+      </c>
+      <c r="B124" s="7">
+        <v>124</v>
+      </c>
+      <c r="C124" s="7">
+        <v>39431</v>
+      </c>
+      <c r="D124" s="8">
+        <v>27</v>
+      </c>
+      <c r="E124" s="8">
+        <v>7939</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125" s="3">
+        <v>43980</v>
+      </c>
+      <c r="B125" s="7">
+        <v>139</v>
+      </c>
+      <c r="C125" s="7">
+        <v>39570</v>
+      </c>
+      <c r="D125" s="8">
+        <v>24</v>
+      </c>
+      <c r="E125" s="8">
+        <v>7963</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126" s="3"/>
+      <c r="B126" s="5" t="s">
         <v>4</v>
       </c>
     </row>
